--- a/results/Temp Results/gamm_temp_param_overall.xlsx
+++ b/results/Temp Results/gamm_temp_param_overall.xlsx
@@ -380,10 +380,10 @@
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>0.85746037031</v>
+        <v>0.739452788088015</v>
       </c>
       <c r="D2" t="n">
-        <v>0.424256815557157</v>
+        <v>0.477390711902224</v>
       </c>
     </row>
   </sheetData>
